--- a/INDICADORES PP_PMC.xlsx
+++ b/INDICADORES PP_PMC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Tipo de Indicador</t>
   </si>
@@ -31,6 +31,33 @@
   </si>
   <si>
     <t>Análisis</t>
+  </si>
+  <si>
+    <t>Cambios aceptados implementados</t>
+  </si>
+  <si>
+    <t>Cumplimiento de entregas</t>
+  </si>
+  <si>
+    <t>Cumplimiento de avances</t>
+  </si>
+  <si>
+    <t>Presupuesto ejecutado</t>
+  </si>
+  <si>
+    <t>Este indicador sirve para medir el porcentaje de cumplimiento de los cambios aceptados en cada iteración del proyecto. De esta manera, podemos analizar el cumplimiento de de los cambios aceptados y como afectan estos al entregable de cada iteración.</t>
+  </si>
+  <si>
+    <t>Este indicador sirve para medir el porcentaje de cumplimiento de entregas en cada iteración del proyecto. De esta manera, podemos analizar el cumplimiento de entrega de todos los proyectos de desarrollo que existen actualmente, mantener un mejor control en el progreso y determinar si se están asignando correctamente los recursos adecuados a las actividades.</t>
+  </si>
+  <si>
+    <t>Project planning</t>
+  </si>
+  <si>
+    <t>Project monitoring and Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este indicador permite medir el % </t>
   </si>
 </sst>
 </file>
@@ -93,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -107,6 +134,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,10 +435,15 @@
   <dimension ref="B3:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="45">
       <c r="B3" s="2" t="s">
@@ -427,17 +462,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="55.5" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="4" spans="2:6" ht="90" customHeight="1">
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6" ht="55.5" customHeight="1">
-      <c r="B5" s="1"/>
+    <row r="5" spans="2:6" ht="153.75" customHeight="1">
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
@@ -452,12 +497,14 @@
   <dimension ref="B3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="30">
@@ -477,17 +524,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="66" customHeight="1">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="4" spans="2:6" ht="105.75" customHeight="1">
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:6" ht="66" customHeight="1">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="2:6" ht="154.5" customHeight="1">
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>

--- a/INDICADORES PP_PMC.xlsx
+++ b/INDICADORES PP_PMC.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PP" sheetId="1" r:id="rId1"/>
     <sheet name="PMC" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Tipo de Indicador</t>
   </si>
@@ -58,19 +58,30 @@
   </si>
   <si>
     <t xml:space="preserve">Este indicador permite medir el % </t>
+  </si>
+  <si>
+    <t>= # Cambios aceptados implementados / # Cambios aceptados</t>
+  </si>
+  <si>
+    <t>= # Entregables ejecutados / # Entregables planificados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -82,13 +93,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -138,6 +149,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,7 +162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -434,18 +448,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="45">
+    <row r="3" spans="2:6" ht="30">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -487,6 +501,7 @@
       <c r="F5" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -496,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -505,6 +520,8 @@
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="30">
@@ -534,7 +551,9 @@
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:6" ht="154.5" customHeight="1">
@@ -547,10 +566,13 @@
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -564,6 +586,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/INDICADORES PP_PMC.xlsx
+++ b/INDICADORES PP_PMC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Tipo de Indicador</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Cumplimiento de entregas</t>
   </si>
   <si>
-    <t>Cumplimiento de avances</t>
-  </si>
-  <si>
     <t>Presupuesto ejecutado</t>
   </si>
   <si>
@@ -57,13 +54,25 @@
     <t>Project monitoring and Control</t>
   </si>
   <si>
-    <t xml:space="preserve">Este indicador permite medir el % </t>
-  </si>
-  <si>
-    <t>= # Cambios aceptados implementados / # Cambios aceptados</t>
-  </si>
-  <si>
-    <t>= # Entregables ejecutados / # Entregables planificados</t>
+    <t>Este indicador permite medir el % de ejecución del Cronograma planificado para el desarrollo del Proyecto</t>
+  </si>
+  <si>
+    <t>Este indicador permite medir el % de ejecución del Presupuesto planificado para el desarrollo del Proyecto</t>
+  </si>
+  <si>
+    <t>Cumplimiento de Cronograma</t>
+  </si>
+  <si>
+    <t>= (Fecha fin ejecutada / Fecha Fin planificada)*100</t>
+  </si>
+  <si>
+    <t>= (Total presupuesto ejecutado / Total presupuesto planificado)*100</t>
+  </si>
+  <si>
+    <t>=( # Cambios aceptados implementados / # Cambios aceptados)* 100</t>
+  </si>
+  <si>
+    <t>=( # Entregables ejecutados / # Entregables planificados) *100</t>
   </si>
 </sst>
 </file>
@@ -159,6 +168,58 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6172200" y="1162050"/>
+          <a:ext cx="3000375" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,14 +510,14 @@
   <dimension ref="B3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="30">
@@ -478,32 +539,39 @@
     </row>
     <row r="4" spans="2:6" ht="90" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:6" ht="153.75" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -512,7 +580,7 @@
   <dimension ref="B3:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -543,31 +611,31 @@
     </row>
     <row r="4" spans="2:6" ht="105.75" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:6" ht="154.5" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1"/>
     </row>

--- a/INDICADORES PP_PMC.xlsx
+++ b/INDICADORES PP_PMC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="PP" sheetId="1" r:id="rId1"/>
@@ -181,13 +181,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>714375</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -201,7 +201,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6172200" y="1162050"/>
+          <a:off x="5591175" y="1162050"/>
           <a:ext cx="3000375" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -214,7 +214,6 @@
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -509,15 +508,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="30">
@@ -579,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
